--- a/202304 Табель ОГМ ПК 250.xlsx
+++ b/202304 Табель ОГМ ПК 250.xlsx
@@ -1,82 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Main!$A$1:$AU$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0" hidden="0">Main!$A$1:$AU$48</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author>tc={00E800CE-00AF-407D-8CBA-00AC00CF0070}</author>
+    <author>tc={00F10083-0021-4AC2-B67A-000A00DE002A}</author>
+    <author>tc={00FD00B5-00FA-4F75-B783-009800350017}</author>
+    <author>tc={00C8000B-0056-4658-9A06-004C003500BD}</author>
+    <author>tc={0090008B-00AB-4A66-8613-00DD00B70026}</author>
   </authors>
   <commentList>
-    <comment ref="V28" authorId="0">
+    <comment ref="Y16" authorId="0" xr:uid="{00E800CE-00AF-407D-8CBA-00AC00CF0070}">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">tc={007600E3-006C-4A73-87C8-001000C80076}:
-tc={008200C9-0001-4783-BD7B-001D00F5005D}:
-tc={BE1041BB-028B-4973-ED60-FF1B65F09544}:
-hmv:
-+1
-</t>
+          <t xml:space="preserve"> :</t>
         </r>
-      </text>
-    </comment>
-    <comment ref="X28" authorId="0">
-      <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">tc={005900E6-003C-4A4D-861B-008A00A0007E}:
-tc={001A0026-0023-4DA2-A65D-002D003800A1}:
-tc={AA72BAB0-6952-75F6-CF21-CEDDD45D6177}:
-hmv:
-+3
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">tc={00D400BB-0095-492E-B67D-00BF0041004F}:
+          <t xml:space="preserve">
+tc={00DF0068-00C4-43C2-80C0-00EA00DC007C}:
+ :
+tc={00D400BB-0095-492E-B67D-00BF0041004F}:
 tc={00930082-00BC-4880-B914-001B000D00E9}:
 tc={00A000F7-0024-4B6D-8B65-00E6003C00EC}:
 tc={007D00C4-0081-4218-B53B-007F00830002}:
@@ -87,17 +55,79 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y28" authorId="0">
+    <comment ref="V28" authorId="1" xr:uid="{00F10083-0021-4AC2-B67A-000A00DE002A}">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">tc={002C0011-003A-4CDD-9D8D-00B500EC0069}:
+          <t xml:space="preserve"> :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+tc={0053004C-005D-420A-A077-00A100DA00B0}:
+ :
+tc={007600E3-006C-4A73-87C8-001000C80076}:
+tc={008200C9-0001-4783-BD7B-001D00F5005D}:
+tc={BE1041BB-028B-4973-ED60-FF1B65F09544}:
+hmv:
++1
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X28" authorId="2" xr:uid="{00FD00B5-00FA-4F75-B783-009800350017}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+tc={00F400A0-00E2-4B7F-8EAF-00B100A9004C}:
+ :
+tc={005900E6-003C-4A4D-861B-008A00A0007E}:
+tc={001A0026-0023-4DA2-A65D-002D003800A1}:
+tc={AA72BAB0-6952-75F6-CF21-CEDDD45D6177}:
+hmv:
++3
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y28" authorId="3" xr:uid="{00C8000B-0056-4658-9A06-004C003500BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+tc={00E00050-0061-4164-B8BD-0029009100B7}:
+ :
+tc={002C0011-003A-4CDD-9D8D-00B500EC0069}:
 tc={008A00A0-0004-49A0-B1A4-002800CB008F}:
 tc={837AEC85-C9E4-4F19-080F-096BA9C7D678}:
 hmv:
@@ -106,17 +136,25 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC28" authorId="0">
+    <comment ref="AC28" authorId="4" xr:uid="{0090008B-00AB-4A66-8613-00DD00B70026}">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">tc={C86BE709-6E4A-8330-61FA-B406500E5925}:
+          <t xml:space="preserve"> :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+tc={00AF00DF-00C6-4DFF-9651-005E003A003D}:
+ :
+tc={C86BE709-6E4A-8330-61FA-B406500E5925}:
 hmv:
 4 часа отгула за 18 и 20 апреля 2023
 </t>
@@ -128,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t xml:space="preserve">АО Риф, ООО Стимул</t>
   </si>
@@ -145,7 +183,7 @@
     <t xml:space="preserve">ПК №250</t>
   </si>
   <si>
-    <t xml:space="preserve">Принятые</t>
+    <t>Принятые</t>
   </si>
   <si>
     <t xml:space="preserve">от 5 января 2004 г. N 1</t>
@@ -154,7 +192,7 @@
     <t xml:space="preserve">наименование структурного подразделения</t>
   </si>
   <si>
-    <t xml:space="preserve">ТАБЕЛЬ</t>
+    <t>ТАБЕЛЬ</t>
   </si>
   <si>
     <t xml:space="preserve">учета использования рабочего времени</t>
@@ -172,7 +210,7 @@
     <t xml:space="preserve">Фамилия,  инициалы, должность (специальность, профессия)</t>
   </si>
   <si>
-    <t xml:space="preserve">Профессия</t>
+    <t>Профессия</t>
   </si>
   <si>
     <t xml:space="preserve">Отметки о явках и неявках на работу по числам месяца</t>
@@ -181,119 +219,119 @@
     <t xml:space="preserve">Отработано за</t>
   </si>
   <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Месяц</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отработано</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всего</t>
-  </si>
-  <si>
-    <t xml:space="preserve">командиров.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">прогул</t>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Месяц</t>
+  </si>
+  <si>
+    <t>Отработано</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>командиров.</t>
+  </si>
+  <si>
+    <t>прогул</t>
   </si>
   <si>
     <t xml:space="preserve">боль-нич-
 ный</t>
   </si>
   <si>
-    <t xml:space="preserve">отпуск</t>
+    <t>отпуск</t>
   </si>
   <si>
     <t xml:space="preserve">адм.
@@ -304,17 +342,17 @@
 ходн</t>
   </si>
   <si>
-    <t xml:space="preserve">ночн.</t>
+    <t>ночн.</t>
   </si>
   <si>
     <t xml:space="preserve">пере-работ-
 ка</t>
   </si>
   <si>
-    <t xml:space="preserve">дней</t>
-  </si>
-  <si>
-    <t xml:space="preserve">часов</t>
+    <t>дней</t>
+  </si>
+  <si>
+    <t>часов</t>
   </si>
   <si>
     <t xml:space="preserve">АО Риф</t>
@@ -323,13 +361,13 @@
     <t xml:space="preserve">Горбуненко Ф.Ф.</t>
   </si>
   <si>
-    <t xml:space="preserve">слес-рем</t>
+    <t>слес-рем</t>
   </si>
   <si>
     <t xml:space="preserve">Дулов С.Д.</t>
   </si>
   <si>
-    <t xml:space="preserve">8Н</t>
+    <t>8Н</t>
   </si>
   <si>
     <t xml:space="preserve">Жандармов А.В.</t>
@@ -338,7 +376,7 @@
     <t xml:space="preserve">Колодный С.С.</t>
   </si>
   <si>
-    <t xml:space="preserve">эл/мех</t>
+    <t>эл/мех</t>
   </si>
   <si>
     <t xml:space="preserve">Котов О.А.</t>
@@ -359,7 +397,7 @@
     <t xml:space="preserve">Лисицкий С.И.</t>
   </si>
   <si>
-    <t xml:space="preserve">О</t>
+    <t>О</t>
   </si>
   <si>
     <t xml:space="preserve">Миньков А.А.</t>
@@ -380,13 +418,13 @@
     <t xml:space="preserve">Харьковский М.В.</t>
   </si>
   <si>
-    <t xml:space="preserve">гл.мех</t>
+    <t>гл.мех</t>
   </si>
   <si>
     <t xml:space="preserve">Якушев И.А.</t>
   </si>
   <si>
-    <t xml:space="preserve">механик</t>
+    <t>механик</t>
   </si>
   <si>
     <t xml:space="preserve">Столповский А.В.</t>
@@ -398,31 +436,31 @@
     <t xml:space="preserve">Рудиков Д.А.</t>
   </si>
   <si>
-    <t xml:space="preserve">А</t>
+    <t>А</t>
   </si>
   <si>
     <t xml:space="preserve">Чередников И.А.</t>
   </si>
   <si>
-    <t xml:space="preserve">СБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЧТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПТ</t>
+    <t>СБ</t>
+  </si>
+  <si>
+    <t>ВС</t>
+  </si>
+  <si>
+    <t>ПН</t>
+  </si>
+  <si>
+    <t>ВТ</t>
+  </si>
+  <si>
+    <t>СР</t>
+  </si>
+  <si>
+    <t>ЧТ</t>
+  </si>
+  <si>
+    <t>ПТ</t>
   </si>
   <si>
     <t xml:space="preserve">Итого дней</t>
@@ -434,7 +472,7 @@
     <t xml:space="preserve">Итого часов</t>
   </si>
   <si>
-    <t xml:space="preserve">должность</t>
+    <t>должность</t>
   </si>
   <si>
     <t xml:space="preserve"> подпись</t>
@@ -446,202 +484,140 @@
     <t xml:space="preserve">Настройка месяца</t>
   </si>
   <si>
-    <t xml:space="preserve">В</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Р</t>
-  </si>
-  <si>
-    <t xml:space="preserve">х</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Б</t>
-  </si>
-  <si>
-    <t xml:space="preserve">К</t>
-  </si>
-  <si>
-    <t xml:space="preserve">П</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11Н</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7Н</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4Н</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Р*</t>
+    <t>В</t>
+  </si>
+  <si>
+    <t>Р</t>
+  </si>
+  <si>
+    <t>х</t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+  <si>
+    <t>К</t>
+  </si>
+  <si>
+    <t>П</t>
+  </si>
+  <si>
+    <t>АО</t>
+  </si>
+  <si>
+    <t>11Н</t>
+  </si>
+  <si>
+    <t>7Н</t>
+  </si>
+  <si>
+    <t>4Н</t>
+  </si>
+  <si>
+    <t>Р*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="10.000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="10.000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8.000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
+      <sz val="7.000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="6.000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="7"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="12.000000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="14.000000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
+      <b/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="14"/>
+      <u/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
+      <sz val="8.000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
+      <sz val="7.500000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8.000000"/>
+      <color indexed="65"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="7.000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="7.5"/>
+      <sz val="9.000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
+      <b/>
+      <sz val="9.000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="7"/>
+      <b/>
+      <sz val="8.000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="8.000000"/>
+      <color rgb="FFC9211E"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
+      <sz val="8.000000"/>
+      <color rgb="FF663300"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="8"/>
+      <b/>
+      <sz val="7.000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <color rgb="FFC9211E"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF663300"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -654,13 +630,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD320"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor indexed="5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF23FF23"/>
-        <bgColor rgb="FF33CCCC"/>
+        <bgColor indexed="49"/>
       </patternFill>
     </fill>
     <fill>
@@ -678,469 +654,920 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCFFF6"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor indexed="65"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="9">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="67">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="8" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="4" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="12" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="13" fillId="4" borderId="4" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="4" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="14" fillId="4" borderId="4" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="14" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="15" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="15" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="15" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="16" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="4" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="9" fillId="5" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="9" fillId="6" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="9" fillId="7" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="9" fillId="8" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="17" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="18" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="17" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="17" fillId="0" borderId="4" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="5" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="6" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="7" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Безымянный1" xfId="20"/>
-    <cellStyle name="Безымянный2" xfId="21"/>
-    <cellStyle name="Безымянный3" xfId="22"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Безымянный1" xfId="6"/>
+    <cellStyle name="Безымянный2" xfId="7"/>
+    <cellStyle name="Безымянный3" xfId="8"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF23FF23"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFBCFFF6"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFE6E6FF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFBCE6FF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFD320"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF663300"/>
-      <rgbColor rgb="FFC9211E"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName=" " id="{16FCE355-C843-B3B4-FA90-4188A40B67C6}"/>
+</personList>
+</file>
+
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+  <a:themeElements>
+    <a:clrScheme name="">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Y16" personId="{16FCE355-C843-B3B4-FA90-4188A40B67C6}" id="{00E800CE-00AF-407D-8CBA-00AC00CF0070}" done="0">
+    <text xml:space="preserve">tc={00DF0068-00C4-43C2-80C0-00EA00DC007C}:
+ :
+tc={00D400BB-0095-492E-B67D-00BF0041004F}:
+tc={00930082-00BC-4880-B914-001B000D00E9}:
+tc={00A000F7-0024-4B6D-8B65-00E6003C00EC}:
+tc={007D00C4-0081-4218-B53B-007F00830002}:
+tc={304D6895-4B93-7C69-1D1C-1A162C8181CC}:
+hmv:
+Отгул
+</text>
+  </threadedComment>
+  <threadedComment ref="V28" personId="{16FCE355-C843-B3B4-FA90-4188A40B67C6}" id="{00F10083-0021-4AC2-B67A-000A00DE002A}" done="0">
+    <text xml:space="preserve">tc={0053004C-005D-420A-A077-00A100DA00B0}:
+ :
+tc={007600E3-006C-4A73-87C8-001000C80076}:
+tc={008200C9-0001-4783-BD7B-001D00F5005D}:
+tc={BE1041BB-028B-4973-ED60-FF1B65F09544}:
+hmv:
++1
+</text>
+  </threadedComment>
+  <threadedComment ref="X28" personId="{16FCE355-C843-B3B4-FA90-4188A40B67C6}" id="{00FD00B5-00FA-4F75-B783-009800350017}" done="0">
+    <text xml:space="preserve">tc={00F400A0-00E2-4B7F-8EAF-00B100A9004C}:
+ :
+tc={005900E6-003C-4A4D-861B-008A00A0007E}:
+tc={001A0026-0023-4DA2-A65D-002D003800A1}:
+tc={AA72BAB0-6952-75F6-CF21-CEDDD45D6177}:
+hmv:
++3
+</text>
+  </threadedComment>
+  <threadedComment ref="Y28" personId="{16FCE355-C843-B3B4-FA90-4188A40B67C6}" id="{00C8000B-0056-4658-9A06-004C003500BD}" done="0">
+    <text xml:space="preserve">tc={00E00050-0061-4164-B8BD-0029009100B7}:
+ :
+tc={002C0011-003A-4CDD-9D8D-00B500EC0069}:
+tc={008A00A0-0004-49A0-B1A4-002800CB008F}:
+tc={837AEC85-C9E4-4F19-080F-096BA9C7D678}:
+hmv:
++1
+</text>
+  </threadedComment>
+  <threadedComment ref="AC28" personId="{16FCE355-C843-B3B4-FA90-4188A40B67C6}" id="{0090008B-00AB-4A66-8613-00DD00B70026}" done="0">
+    <text xml:space="preserve">tc={00AF00DF-00C6-4DFF-9651-005E003A003D}:
+ :
+tc={C86BE709-6E4A-8330-61FA-B406500E5925}:
+hmv:
+4 часа отгула за 18 и 20 апреля 2023
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFF0000"/>
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <tabColor indexed="2"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE16" activeCellId="0" sqref="AE16"/>
+    <sheetView showGridLines="0" showRowColHeaders="1" showZeros="1" topLeftCell="A1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="AI45" activeCellId="0" sqref="AI45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="5" style="1" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="36" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="48" style="1" width="8.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="1" width="11.57"/>
+    <col customWidth="1" min="1" max="1" style="1" width="3.2999999999999998"/>
+    <col customWidth="1" min="2" max="2" style="1" width="6.2800000000000002"/>
+    <col customWidth="1" min="3" max="3" style="1" width="13.289999999999999"/>
+    <col customWidth="1" min="4" max="4" style="1" width="10.42"/>
+    <col customWidth="1" min="5" max="35" style="1" width="3.5699999999999998"/>
+    <col customWidth="1" min="36" max="47" style="1" width="4.71"/>
+    <col customWidth="1" min="48" max="64" style="1" width="8.4000000000000004"/>
+    <col customWidth="0" min="65" max="1024" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25" hidden="1" customHeight="1">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="12.75" hidden="1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
@@ -1249,7 +1676,7 @@
       <c r="BK2" s="7"/>
       <c r="BL2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" ht="14.25" hidden="1" customHeight="1">
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1299,7 +1726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="8.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="8.25" hidden="1" customHeight="1">
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1753,7 @@
       <c r="AN4" s="13"/>
       <c r="AO4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
@@ -1375,11 +1802,11 @@
       <c r="AR5" s="14"/>
       <c r="AS5" s="14"/>
       <c r="AT5" s="14"/>
-      <c r="AU5" s="15" t="n">
+      <c r="AU5" s="15">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="10.5" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
@@ -1430,7 +1857,7 @@
       <c r="AT6" s="16"/>
       <c r="AU6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
@@ -1481,7 +1908,7 @@
       <c r="AT7" s="17"/>
       <c r="AU7" s="18"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>11</v>
       </c>
@@ -1546,7 +1973,7 @@
       <c r="AX8" s="20"/>
       <c r="AY8" s="20"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -1663,7 +2090,7 @@
       </c>
       <c r="AU9" s="22"/>
     </row>
-    <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="32.25" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -1736,18 +2163,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="n">
+    <row r="11" ht="11.25" customHeight="1">
+      <c r="A11" s="27">
         <v>1</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="27" t="n">
+      <c r="C11" s="27">
         <v>2</v>
       </c>
-      <c r="D11" s="27" t="n">
+      <c r="D11" s="27">
         <v>3</v>
       </c>
-      <c r="E11" s="28" t="n">
+      <c r="E11" s="28">
         <v>4</v>
       </c>
       <c r="F11" s="28"/>
@@ -1780,44 +2207,44 @@
       <c r="AG11" s="28"/>
       <c r="AH11" s="28"/>
       <c r="AI11" s="28"/>
-      <c r="AJ11" s="27" t="n">
+      <c r="AJ11" s="27">
         <v>5</v>
       </c>
-      <c r="AK11" s="27" t="n">
+      <c r="AK11" s="27">
         <v>6</v>
       </c>
-      <c r="AL11" s="27" t="n">
+      <c r="AL11" s="27">
         <v>7</v>
       </c>
-      <c r="AM11" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN11" s="27" t="n">
+      <c r="AM11" s="27">
+        <v>8</v>
+      </c>
+      <c r="AN11" s="27">
         <v>9</v>
       </c>
-      <c r="AO11" s="27" t="n">
+      <c r="AO11" s="27">
         <v>10</v>
       </c>
-      <c r="AP11" s="27" t="n">
+      <c r="AP11" s="27">
         <v>11</v>
       </c>
-      <c r="AQ11" s="27" t="n">
+      <c r="AQ11" s="27">
         <v>12</v>
       </c>
-      <c r="AR11" s="27" t="n">
+      <c r="AR11" s="27">
         <v>13</v>
       </c>
-      <c r="AS11" s="27" t="n">
+      <c r="AS11" s="27">
         <v>14</v>
       </c>
-      <c r="AT11" s="27" t="n">
+      <c r="AT11" s="27">
         <v>15</v>
       </c>
-      <c r="AU11" s="27" t="n">
+      <c r="AU11" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="29"/>
       <c r="B12" s="30" t="s">
         <v>61</v>
@@ -1868,11 +2295,11 @@
       <c r="AT12" s="33"/>
       <c r="AU12" s="33"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="n">
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="34">
         <v>1</v>
       </c>
-      <c r="B13" s="34" t="n">
+      <c r="B13" s="34">
         <v>83727</v>
       </c>
       <c r="C13" s="35" t="s">
@@ -1883,64 +2310,64 @@
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
-      <c r="G13" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H13" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I13" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K13" s="37" t="n">
+      <c r="G13" s="37">
+        <v>8</v>
+      </c>
+      <c r="H13" s="37">
+        <v>8</v>
+      </c>
+      <c r="I13" s="37">
+        <v>8</v>
+      </c>
+      <c r="J13" s="37">
+        <v>8</v>
+      </c>
+      <c r="K13" s="37">
         <v>8</v>
       </c>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
-      <c r="N13" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O13" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P13" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R13" s="37" t="n">
+      <c r="N13" s="37">
+        <v>8</v>
+      </c>
+      <c r="O13" s="37">
+        <v>8</v>
+      </c>
+      <c r="P13" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="37">
+        <v>8</v>
+      </c>
+      <c r="R13" s="37">
         <v>8</v>
       </c>
       <c r="S13" s="36"/>
       <c r="T13" s="36"/>
-      <c r="U13" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="V13" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="W13" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X13" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y13" s="37" t="n">
+      <c r="U13" s="37">
+        <v>8</v>
+      </c>
+      <c r="V13" s="37">
+        <v>8</v>
+      </c>
+      <c r="W13" s="37">
+        <v>8</v>
+      </c>
+      <c r="X13" s="37">
+        <v>8</v>
+      </c>
+      <c r="Y13" s="37">
         <v>8</v>
       </c>
       <c r="Z13" s="36"/>
       <c r="AA13" s="36"/>
-      <c r="AB13" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC13" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD13" s="37" t="n">
+      <c r="AB13" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC13" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD13" s="37">
         <v>8</v>
       </c>
       <c r="AE13" s="37"/>
@@ -1956,24 +2383,24 @@
       <c r="AO13" s="39"/>
       <c r="AP13" s="32"/>
       <c r="AQ13" s="33"/>
-      <c r="AR13" s="32" t="n">
+      <c r="AR13" s="32">
         <v>18</v>
       </c>
-      <c r="AS13" s="39" t="n">
+      <c r="AS13" s="39">
         <v>144</v>
       </c>
-      <c r="AT13" s="33" t="n">
+      <c r="AT13" s="33">
         <v>20</v>
       </c>
-      <c r="AU13" s="32" t="n">
+      <c r="AU13" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="n">
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="34" t="n">
+      <c r="B14" s="34">
         <v>89046</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -1984,25 +2411,25 @@
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H14" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I14" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K14" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="L14" s="36" t="n">
+      <c r="G14" s="37">
+        <v>8</v>
+      </c>
+      <c r="H14" s="37">
+        <v>8</v>
+      </c>
+      <c r="I14" s="37">
+        <v>8</v>
+      </c>
+      <c r="J14" s="37">
+        <v>8</v>
+      </c>
+      <c r="K14" s="37">
+        <v>8</v>
+      </c>
+      <c r="L14" s="36">
         <v>7</v>
       </c>
-      <c r="M14" s="36" t="n">
+      <c r="M14" s="36">
         <v>7</v>
       </c>
       <c r="N14" s="37" t="s">
@@ -2022,30 +2449,30 @@
       </c>
       <c r="S14" s="36"/>
       <c r="T14" s="36"/>
-      <c r="U14" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="V14" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="W14" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X14" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="37" t="n">
+      <c r="U14" s="37">
+        <v>8</v>
+      </c>
+      <c r="V14" s="37">
+        <v>8</v>
+      </c>
+      <c r="W14" s="37">
+        <v>8</v>
+      </c>
+      <c r="X14" s="37">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="37">
         <v>8</v>
       </c>
       <c r="Z14" s="36"/>
       <c r="AA14" s="36"/>
-      <c r="AB14" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC14" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD14" s="37" t="n">
+      <c r="AB14" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="37">
         <v>8</v>
       </c>
       <c r="AE14" s="37"/>
@@ -2058,31 +2485,31 @@
       <c r="AL14" s="32"/>
       <c r="AM14" s="32"/>
       <c r="AN14" s="32"/>
-      <c r="AO14" s="39" t="n">
+      <c r="AO14" s="39">
         <v>14</v>
       </c>
-      <c r="AP14" s="32" t="n">
+      <c r="AP14" s="32">
         <v>17.5</v>
       </c>
       <c r="AQ14" s="33"/>
-      <c r="AR14" s="32" t="n">
+      <c r="AR14" s="32">
         <v>20</v>
       </c>
-      <c r="AS14" s="39" t="n">
+      <c r="AS14" s="39">
         <v>158</v>
       </c>
-      <c r="AT14" s="33" t="n">
+      <c r="AT14" s="33">
         <v>20</v>
       </c>
-      <c r="AU14" s="32" t="n">
+      <c r="AU14" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="n">
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="34">
         <v>3</v>
       </c>
-      <c r="B15" s="34" t="n">
+      <c r="B15" s="34">
         <v>12341</v>
       </c>
       <c r="C15" s="35" t="s">
@@ -2093,64 +2520,64 @@
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H15" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I15" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J15" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K15" s="37" t="n">
+      <c r="G15" s="37">
+        <v>8</v>
+      </c>
+      <c r="H15" s="37">
+        <v>8</v>
+      </c>
+      <c r="I15" s="37">
+        <v>8</v>
+      </c>
+      <c r="J15" s="37">
+        <v>8</v>
+      </c>
+      <c r="K15" s="37">
         <v>8</v>
       </c>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
-      <c r="N15" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O15" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P15" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R15" s="37" t="n">
+      <c r="N15" s="37">
+        <v>8</v>
+      </c>
+      <c r="O15" s="37">
+        <v>8</v>
+      </c>
+      <c r="P15" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="37">
+        <v>8</v>
+      </c>
+      <c r="R15" s="37">
         <v>8</v>
       </c>
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
-      <c r="U15" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="V15" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="W15" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X15" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y15" s="37" t="n">
+      <c r="U15" s="37">
+        <v>8</v>
+      </c>
+      <c r="V15" s="37">
+        <v>8</v>
+      </c>
+      <c r="W15" s="37">
+        <v>8</v>
+      </c>
+      <c r="X15" s="37">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="37">
         <v>8</v>
       </c>
       <c r="Z15" s="36"/>
       <c r="AA15" s="36"/>
-      <c r="AB15" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC15" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD15" s="37" t="n">
+      <c r="AB15" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC15" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD15" s="37">
         <v>8</v>
       </c>
       <c r="AE15" s="37"/>
@@ -2166,24 +2593,24 @@
       <c r="AO15" s="39"/>
       <c r="AP15" s="32"/>
       <c r="AQ15" s="33"/>
-      <c r="AR15" s="32" t="n">
+      <c r="AR15" s="32">
         <v>18</v>
       </c>
-      <c r="AS15" s="39" t="n">
+      <c r="AS15" s="39">
         <v>144</v>
       </c>
-      <c r="AT15" s="33" t="n">
+      <c r="AT15" s="33">
         <v>20</v>
       </c>
-      <c r="AU15" s="32" t="n">
+      <c r="AU15" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="n">
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="34">
         <v>4</v>
       </c>
-      <c r="B16" s="34" t="n">
+      <c r="B16" s="34">
         <v>83448</v>
       </c>
       <c r="C16" s="35" t="s">
@@ -2192,10 +2619,10 @@
       <c r="D16" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="36" t="n">
+      <c r="E16" s="36">
         <v>7</v>
       </c>
-      <c r="F16" s="36" t="n">
+      <c r="F16" s="36">
         <v>7</v>
       </c>
       <c r="G16" s="37" t="s">
@@ -2215,47 +2642,47 @@
       </c>
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
-      <c r="N16" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O16" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P16" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R16" s="37" t="n">
+      <c r="N16" s="37">
+        <v>8</v>
+      </c>
+      <c r="O16" s="37">
+        <v>8</v>
+      </c>
+      <c r="P16" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="37">
+        <v>8</v>
+      </c>
+      <c r="R16" s="37">
         <v>8</v>
       </c>
       <c r="S16" s="36"/>
       <c r="T16" s="36"/>
-      <c r="U16" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="V16" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="W16" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X16" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y16" s="37" t="n">
+      <c r="U16" s="37">
+        <v>8</v>
+      </c>
+      <c r="V16" s="37">
+        <v>8</v>
+      </c>
+      <c r="W16" s="37">
+        <v>8</v>
+      </c>
+      <c r="X16" s="37">
+        <v>8</v>
+      </c>
+      <c r="Y16" s="37">
         <v>8</v>
       </c>
       <c r="Z16" s="36"/>
       <c r="AA16" s="36"/>
-      <c r="AB16" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC16" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" s="37" t="n">
+      <c r="AB16" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC16" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD16" s="37">
         <v>8</v>
       </c>
       <c r="AE16" s="37"/>
@@ -2268,31 +2695,31 @@
       <c r="AL16" s="32"/>
       <c r="AM16" s="32"/>
       <c r="AN16" s="32"/>
-      <c r="AO16" s="39" t="n">
+      <c r="AO16" s="39">
         <v>14</v>
       </c>
-      <c r="AP16" s="32" t="n">
+      <c r="AP16" s="32">
         <v>17.5</v>
       </c>
       <c r="AQ16" s="33"/>
-      <c r="AR16" s="32" t="n">
+      <c r="AR16" s="32">
         <v>20</v>
       </c>
-      <c r="AS16" s="39" t="n">
+      <c r="AS16" s="39">
         <v>158</v>
       </c>
-      <c r="AT16" s="33" t="n">
+      <c r="AT16" s="33">
         <v>20</v>
       </c>
-      <c r="AU16" s="32" t="n">
+      <c r="AU16" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="n">
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="34">
         <v>5</v>
       </c>
-      <c r="B17" s="34" t="n">
+      <c r="B17" s="34">
         <v>63540</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -2303,39 +2730,39 @@
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="36"/>
-      <c r="G17" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H17" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I17" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" s="37" t="n">
+      <c r="G17" s="37">
+        <v>8</v>
+      </c>
+      <c r="H17" s="37">
+        <v>8</v>
+      </c>
+      <c r="I17" s="37">
+        <v>8</v>
+      </c>
+      <c r="J17" s="37">
         <v>4</v>
       </c>
-      <c r="K17" s="37" t="n">
+      <c r="K17" s="37">
         <v>8</v>
       </c>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
-      <c r="N17" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O17" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P17" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R17" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="S17" s="36" t="n">
+      <c r="N17" s="37">
+        <v>8</v>
+      </c>
+      <c r="O17" s="37">
+        <v>8</v>
+      </c>
+      <c r="P17" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="37">
+        <v>8</v>
+      </c>
+      <c r="R17" s="37">
+        <v>8</v>
+      </c>
+      <c r="S17" s="36">
         <v>7</v>
       </c>
       <c r="T17" s="36"/>
@@ -2356,13 +2783,13 @@
       </c>
       <c r="Z17" s="36"/>
       <c r="AA17" s="36"/>
-      <c r="AB17" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC17" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD17" s="37" t="n">
+      <c r="AB17" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC17" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD17" s="37">
         <v>8</v>
       </c>
       <c r="AE17" s="37"/>
@@ -2375,31 +2802,31 @@
       <c r="AL17" s="32"/>
       <c r="AM17" s="32"/>
       <c r="AN17" s="32"/>
-      <c r="AO17" s="39" t="n">
+      <c r="AO17" s="39">
         <v>7</v>
       </c>
-      <c r="AP17" s="32" t="n">
+      <c r="AP17" s="32">
         <v>17.5</v>
       </c>
       <c r="AQ17" s="33"/>
-      <c r="AR17" s="32" t="n">
+      <c r="AR17" s="32">
         <v>19</v>
       </c>
-      <c r="AS17" s="39" t="n">
+      <c r="AS17" s="39">
         <v>147</v>
       </c>
-      <c r="AT17" s="33" t="n">
+      <c r="AT17" s="33">
         <v>20</v>
       </c>
-      <c r="AU17" s="32" t="n">
+      <c r="AU17" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="n">
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="34">
         <v>6</v>
       </c>
-      <c r="B18" s="34" t="n">
+      <c r="B18" s="34">
         <v>90072</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -2410,64 +2837,64 @@
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
-      <c r="G18" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H18" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I18" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J18" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K18" s="37" t="n">
+      <c r="G18" s="37">
+        <v>8</v>
+      </c>
+      <c r="H18" s="37">
+        <v>8</v>
+      </c>
+      <c r="I18" s="37">
+        <v>8</v>
+      </c>
+      <c r="J18" s="37">
+        <v>8</v>
+      </c>
+      <c r="K18" s="37">
         <v>8</v>
       </c>
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
-      <c r="N18" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O18" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P18" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R18" s="37" t="n">
+      <c r="N18" s="37">
+        <v>8</v>
+      </c>
+      <c r="O18" s="37">
+        <v>8</v>
+      </c>
+      <c r="P18" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="37">
+        <v>8</v>
+      </c>
+      <c r="R18" s="37">
         <v>8</v>
       </c>
       <c r="S18" s="36"/>
       <c r="T18" s="36"/>
-      <c r="U18" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="V18" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="W18" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X18" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y18" s="37" t="n">
+      <c r="U18" s="37">
+        <v>8</v>
+      </c>
+      <c r="V18" s="37">
+        <v>8</v>
+      </c>
+      <c r="W18" s="37">
+        <v>8</v>
+      </c>
+      <c r="X18" s="37">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="37">
         <v>8</v>
       </c>
       <c r="Z18" s="36"/>
       <c r="AA18" s="36"/>
-      <c r="AB18" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC18" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD18" s="37" t="n">
+      <c r="AB18" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC18" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD18" s="37">
         <v>8</v>
       </c>
       <c r="AE18" s="37"/>
@@ -2483,24 +2910,24 @@
       <c r="AO18" s="39"/>
       <c r="AP18" s="32"/>
       <c r="AQ18" s="33"/>
-      <c r="AR18" s="32" t="n">
+      <c r="AR18" s="32">
         <v>18</v>
       </c>
-      <c r="AS18" s="39" t="n">
+      <c r="AS18" s="39">
         <v>144</v>
       </c>
-      <c r="AT18" s="33" t="n">
+      <c r="AT18" s="33">
         <v>20</v>
       </c>
-      <c r="AU18" s="32" t="n">
+      <c r="AU18" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="n">
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="34">
         <v>7</v>
       </c>
-      <c r="B19" s="34" t="n">
+      <c r="B19" s="34">
         <v>63198</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -2511,39 +2938,39 @@
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H19" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I19" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J19" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K19" s="37" t="n">
+      <c r="G19" s="37">
+        <v>8</v>
+      </c>
+      <c r="H19" s="37">
+        <v>8</v>
+      </c>
+      <c r="I19" s="37">
+        <v>8</v>
+      </c>
+      <c r="J19" s="37">
+        <v>8</v>
+      </c>
+      <c r="K19" s="37">
         <v>8</v>
       </c>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
-      <c r="N19" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O19" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P19" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R19" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="S19" s="36" t="n">
+      <c r="N19" s="37">
+        <v>8</v>
+      </c>
+      <c r="O19" s="37">
+        <v>8</v>
+      </c>
+      <c r="P19" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="37">
+        <v>8</v>
+      </c>
+      <c r="R19" s="37">
+        <v>8</v>
+      </c>
+      <c r="S19" s="36">
         <v>7</v>
       </c>
       <c r="T19" s="36"/>
@@ -2564,13 +2991,13 @@
       </c>
       <c r="Z19" s="36"/>
       <c r="AA19" s="36"/>
-      <c r="AB19" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC19" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD19" s="37" t="n">
+      <c r="AB19" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC19" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD19" s="37">
         <v>8</v>
       </c>
       <c r="AE19" s="37"/>
@@ -2583,31 +3010,31 @@
       <c r="AL19" s="32"/>
       <c r="AM19" s="32"/>
       <c r="AN19" s="32"/>
-      <c r="AO19" s="39" t="n">
+      <c r="AO19" s="39">
         <v>7</v>
       </c>
-      <c r="AP19" s="32" t="n">
+      <c r="AP19" s="32">
         <v>17.5</v>
       </c>
       <c r="AQ19" s="33"/>
-      <c r="AR19" s="32" t="n">
+      <c r="AR19" s="32">
         <v>19</v>
       </c>
-      <c r="AS19" s="39" t="n">
+      <c r="AS19" s="39">
         <v>151</v>
       </c>
-      <c r="AT19" s="33" t="n">
+      <c r="AT19" s="33">
         <v>20</v>
       </c>
-      <c r="AU19" s="32" t="n">
+      <c r="AU19" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="n">
-        <v>8</v>
-      </c>
-      <c r="B20" s="34" t="n">
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="34">
+        <v>8</v>
+      </c>
+      <c r="B20" s="34">
         <v>63549</v>
       </c>
       <c r="C20" s="35" t="s">
@@ -2616,10 +3043,10 @@
       <c r="D20" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="36" t="n">
+      <c r="E20" s="36">
         <v>7</v>
       </c>
-      <c r="F20" s="36" t="n">
+      <c r="F20" s="36">
         <v>7</v>
       </c>
       <c r="G20" s="37" t="s">
@@ -2639,47 +3066,47 @@
       </c>
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O20" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P20" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R20" s="37" t="n">
+      <c r="N20" s="37">
+        <v>8</v>
+      </c>
+      <c r="O20" s="37">
+        <v>8</v>
+      </c>
+      <c r="P20" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="37">
+        <v>8</v>
+      </c>
+      <c r="R20" s="37">
         <v>8</v>
       </c>
       <c r="S20" s="36"/>
       <c r="T20" s="36"/>
-      <c r="U20" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="V20" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="W20" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X20" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y20" s="37" t="n">
+      <c r="U20" s="37">
+        <v>8</v>
+      </c>
+      <c r="V20" s="37">
+        <v>8</v>
+      </c>
+      <c r="W20" s="37">
+        <v>8</v>
+      </c>
+      <c r="X20" s="37">
+        <v>8</v>
+      </c>
+      <c r="Y20" s="37">
         <v>8</v>
       </c>
       <c r="Z20" s="36"/>
       <c r="AA20" s="36"/>
-      <c r="AB20" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC20" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD20" s="37" t="n">
+      <c r="AB20" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC20" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD20" s="37">
         <v>8</v>
       </c>
       <c r="AE20" s="37"/>
@@ -2692,31 +3119,31 @@
       <c r="AL20" s="32"/>
       <c r="AM20" s="32"/>
       <c r="AN20" s="32"/>
-      <c r="AO20" s="39" t="n">
+      <c r="AO20" s="39">
         <v>14</v>
       </c>
-      <c r="AP20" s="32" t="n">
+      <c r="AP20" s="32">
         <v>17.5</v>
       </c>
       <c r="AQ20" s="33"/>
-      <c r="AR20" s="32" t="n">
+      <c r="AR20" s="32">
         <v>20</v>
       </c>
-      <c r="AS20" s="39" t="n">
+      <c r="AS20" s="39">
         <v>158</v>
       </c>
-      <c r="AT20" s="33" t="n">
+      <c r="AT20" s="33">
         <v>20</v>
       </c>
-      <c r="AU20" s="32" t="n">
+      <c r="AU20" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="n">
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="34">
         <v>9</v>
       </c>
-      <c r="B21" s="34" t="n">
+      <c r="B21" s="34">
         <v>12377</v>
       </c>
       <c r="C21" s="35" t="s">
@@ -2727,64 +3154,64 @@
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H21" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I21" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K21" s="37" t="n">
+      <c r="G21" s="37">
+        <v>8</v>
+      </c>
+      <c r="H21" s="37">
+        <v>8</v>
+      </c>
+      <c r="I21" s="37">
+        <v>8</v>
+      </c>
+      <c r="J21" s="37">
+        <v>8</v>
+      </c>
+      <c r="K21" s="37">
         <v>8</v>
       </c>
       <c r="L21" s="36"/>
       <c r="M21" s="36"/>
-      <c r="N21" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O21" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P21" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R21" s="37" t="n">
+      <c r="N21" s="37">
+        <v>8</v>
+      </c>
+      <c r="O21" s="37">
+        <v>8</v>
+      </c>
+      <c r="P21" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="37">
+        <v>8</v>
+      </c>
+      <c r="R21" s="37">
         <v>8</v>
       </c>
       <c r="S21" s="36"/>
       <c r="T21" s="36"/>
-      <c r="U21" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="V21" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="W21" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X21" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y21" s="37" t="n">
+      <c r="U21" s="37">
+        <v>8</v>
+      </c>
+      <c r="V21" s="37">
+        <v>8</v>
+      </c>
+      <c r="W21" s="37">
+        <v>8</v>
+      </c>
+      <c r="X21" s="37">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="37">
         <v>8</v>
       </c>
       <c r="Z21" s="36"/>
       <c r="AA21" s="36"/>
-      <c r="AB21" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC21" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD21" s="37" t="n">
+      <c r="AB21" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD21" s="37">
         <v>8</v>
       </c>
       <c r="AE21" s="37"/>
@@ -2800,24 +3227,24 @@
       <c r="AO21" s="39"/>
       <c r="AP21" s="32"/>
       <c r="AQ21" s="33"/>
-      <c r="AR21" s="32" t="n">
+      <c r="AR21" s="32">
         <v>18</v>
       </c>
-      <c r="AS21" s="39" t="n">
+      <c r="AS21" s="39">
         <v>144</v>
       </c>
-      <c r="AT21" s="33" t="n">
+      <c r="AT21" s="33">
         <v>20</v>
       </c>
-      <c r="AU21" s="32" t="n">
+      <c r="AU21" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="n">
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="34">
         <v>10</v>
       </c>
-      <c r="B22" s="34" t="n">
+      <c r="B22" s="34">
         <v>81108</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -2828,25 +3255,25 @@
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
-      <c r="G22" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H22" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I22" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J22" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K22" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="L22" s="36" t="n">
+      <c r="G22" s="37">
+        <v>8</v>
+      </c>
+      <c r="H22" s="37">
+        <v>8</v>
+      </c>
+      <c r="I22" s="37">
+        <v>8</v>
+      </c>
+      <c r="J22" s="37">
+        <v>8</v>
+      </c>
+      <c r="K22" s="37">
+        <v>8</v>
+      </c>
+      <c r="L22" s="36">
         <v>7</v>
       </c>
-      <c r="M22" s="36" t="n">
+      <c r="M22" s="36">
         <v>7</v>
       </c>
       <c r="N22" s="37" t="s">
@@ -2891,13 +3318,13 @@
       <c r="AA22" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="AB22" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC22" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD22" s="37" t="n">
+      <c r="AB22" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC22" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD22" s="37">
         <v>8</v>
       </c>
       <c r="AE22" s="37"/>
@@ -2908,33 +3335,33 @@
       <c r="AJ22" s="31"/>
       <c r="AK22" s="31"/>
       <c r="AL22" s="32"/>
-      <c r="AM22" s="32" t="n">
+      <c r="AM22" s="32">
         <v>14</v>
       </c>
       <c r="AN22" s="32"/>
-      <c r="AO22" s="39" t="n">
+      <c r="AO22" s="39">
         <v>14</v>
       </c>
       <c r="AP22" s="32"/>
       <c r="AQ22" s="33"/>
-      <c r="AR22" s="32" t="n">
+      <c r="AR22" s="32">
         <v>10</v>
       </c>
-      <c r="AS22" s="39" t="n">
+      <c r="AS22" s="39">
         <v>78</v>
       </c>
-      <c r="AT22" s="33" t="n">
+      <c r="AT22" s="33">
         <v>20</v>
       </c>
-      <c r="AU22" s="32" t="n">
+      <c r="AU22" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="n">
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="34">
         <v>11</v>
       </c>
-      <c r="B23" s="34" t="n">
+      <c r="B23" s="34">
         <v>63558</v>
       </c>
       <c r="C23" s="35" t="s">
@@ -2945,59 +3372,59 @@
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
-      <c r="G23" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H23" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I23" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J23" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K23" s="37" t="n">
+      <c r="G23" s="37">
+        <v>8</v>
+      </c>
+      <c r="H23" s="37">
+        <v>8</v>
+      </c>
+      <c r="I23" s="37">
+        <v>8</v>
+      </c>
+      <c r="J23" s="37">
+        <v>8</v>
+      </c>
+      <c r="K23" s="37">
         <v>8</v>
       </c>
       <c r="L23" s="36"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O23" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P23" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R23" s="37" t="n">
+      <c r="N23" s="37">
+        <v>8</v>
+      </c>
+      <c r="O23" s="37">
+        <v>8</v>
+      </c>
+      <c r="P23" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="37">
+        <v>8</v>
+      </c>
+      <c r="R23" s="37">
         <v>8</v>
       </c>
       <c r="S23" s="36"/>
       <c r="T23" s="36"/>
-      <c r="U23" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="V23" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="W23" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X23" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y23" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z23" s="36" t="n">
+      <c r="U23" s="37">
+        <v>8</v>
+      </c>
+      <c r="V23" s="37">
+        <v>8</v>
+      </c>
+      <c r="W23" s="37">
+        <v>8</v>
+      </c>
+      <c r="X23" s="37">
+        <v>8</v>
+      </c>
+      <c r="Y23" s="37">
+        <v>8</v>
+      </c>
+      <c r="Z23" s="36">
         <v>7</v>
       </c>
-      <c r="AA23" s="36" t="n">
+      <c r="AA23" s="36">
         <v>7</v>
       </c>
       <c r="AB23" s="37" t="s">
@@ -3023,33 +3450,33 @@
       <c r="AL23" s="32"/>
       <c r="AM23" s="32"/>
       <c r="AN23" s="32"/>
-      <c r="AO23" s="39" t="n">
+      <c r="AO23" s="39">
         <v>14</v>
       </c>
-      <c r="AP23" s="32" t="n">
+      <c r="AP23" s="32">
         <v>17.5</v>
       </c>
-      <c r="AQ23" s="33" t="n">
+      <c r="AQ23" s="33">
         <v>14</v>
       </c>
-      <c r="AR23" s="32" t="n">
+      <c r="AR23" s="32">
         <v>22</v>
       </c>
-      <c r="AS23" s="39" t="n">
+      <c r="AS23" s="39">
         <v>174</v>
       </c>
-      <c r="AT23" s="33" t="n">
+      <c r="AT23" s="33">
         <v>20</v>
       </c>
-      <c r="AU23" s="32" t="n">
+      <c r="AU23" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="n">
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="34">
         <v>12</v>
       </c>
-      <c r="B24" s="34" t="n">
+      <c r="B24" s="34">
         <v>64062</v>
       </c>
       <c r="C24" s="35" t="s">
@@ -3060,64 +3487,64 @@
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
-      <c r="G24" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H24" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I24" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K24" s="37" t="n">
+      <c r="G24" s="37">
+        <v>8</v>
+      </c>
+      <c r="H24" s="37">
+        <v>8</v>
+      </c>
+      <c r="I24" s="37">
+        <v>8</v>
+      </c>
+      <c r="J24" s="37">
+        <v>8</v>
+      </c>
+      <c r="K24" s="37">
         <v>8</v>
       </c>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
-      <c r="N24" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O24" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P24" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R24" s="37" t="n">
+      <c r="N24" s="37">
+        <v>8</v>
+      </c>
+      <c r="O24" s="37">
+        <v>8</v>
+      </c>
+      <c r="P24" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="37">
+        <v>8</v>
+      </c>
+      <c r="R24" s="37">
         <v>8</v>
       </c>
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
-      <c r="U24" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="V24" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="W24" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X24" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y24" s="37" t="n">
+      <c r="U24" s="37">
+        <v>8</v>
+      </c>
+      <c r="V24" s="37">
+        <v>8</v>
+      </c>
+      <c r="W24" s="37">
+        <v>8</v>
+      </c>
+      <c r="X24" s="37">
+        <v>8</v>
+      </c>
+      <c r="Y24" s="37">
         <v>8</v>
       </c>
       <c r="Z24" s="36"/>
       <c r="AA24" s="36"/>
-      <c r="AB24" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC24" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD24" s="37" t="n">
+      <c r="AB24" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC24" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD24" s="37">
         <v>8</v>
       </c>
       <c r="AE24" s="37"/>
@@ -3133,24 +3560,24 @@
       <c r="AO24" s="39"/>
       <c r="AP24" s="32"/>
       <c r="AQ24" s="33"/>
-      <c r="AR24" s="32" t="n">
+      <c r="AR24" s="32">
         <v>18</v>
       </c>
-      <c r="AS24" s="39" t="n">
+      <c r="AS24" s="39">
         <v>144</v>
       </c>
-      <c r="AT24" s="33" t="n">
+      <c r="AT24" s="33">
         <v>20</v>
       </c>
-      <c r="AU24" s="32" t="n">
+      <c r="AU24" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="n">
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="34">
         <v>13</v>
       </c>
-      <c r="B25" s="34" t="n">
+      <c r="B25" s="34">
         <v>66051</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -3161,19 +3588,19 @@
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
-      <c r="G25" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H25" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I25" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J25" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K25" s="37" t="n">
+      <c r="G25" s="37">
+        <v>8</v>
+      </c>
+      <c r="H25" s="37">
+        <v>8</v>
+      </c>
+      <c r="I25" s="37">
+        <v>8</v>
+      </c>
+      <c r="J25" s="37">
+        <v>8</v>
+      </c>
+      <c r="K25" s="37">
         <v>8</v>
       </c>
       <c r="L25" s="36"/>
@@ -3195,30 +3622,30 @@
       </c>
       <c r="S25" s="36"/>
       <c r="T25" s="36"/>
-      <c r="U25" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="V25" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="W25" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X25" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y25" s="37" t="n">
+      <c r="U25" s="37">
+        <v>8</v>
+      </c>
+      <c r="V25" s="37">
+        <v>8</v>
+      </c>
+      <c r="W25" s="37">
+        <v>8</v>
+      </c>
+      <c r="X25" s="37">
+        <v>8</v>
+      </c>
+      <c r="Y25" s="37">
         <v>8</v>
       </c>
       <c r="Z25" s="36"/>
       <c r="AA25" s="36"/>
-      <c r="AB25" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC25" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD25" s="37" t="n">
+      <c r="AB25" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC25" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD25" s="37">
         <v>8</v>
       </c>
       <c r="AE25" s="37"/>
@@ -3232,28 +3659,28 @@
       <c r="AM25" s="32"/>
       <c r="AN25" s="32"/>
       <c r="AO25" s="39"/>
-      <c r="AP25" s="32" t="n">
+      <c r="AP25" s="32">
         <v>17.5</v>
       </c>
       <c r="AQ25" s="33"/>
-      <c r="AR25" s="32" t="n">
+      <c r="AR25" s="32">
         <v>18</v>
       </c>
-      <c r="AS25" s="39" t="n">
+      <c r="AS25" s="39">
         <v>144</v>
       </c>
-      <c r="AT25" s="33" t="n">
+      <c r="AT25" s="33">
         <v>20</v>
       </c>
-      <c r="AU25" s="32" t="n">
+      <c r="AU25" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="n">
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="34">
         <v>14</v>
       </c>
-      <c r="B26" s="34" t="n">
+      <c r="B26" s="34">
         <v>11684</v>
       </c>
       <c r="C26" s="35" t="s">
@@ -3264,64 +3691,64 @@
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
-      <c r="G26" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H26" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I26" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J26" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K26" s="37" t="n">
+      <c r="G26" s="37">
+        <v>8</v>
+      </c>
+      <c r="H26" s="37">
+        <v>8</v>
+      </c>
+      <c r="I26" s="37">
+        <v>8</v>
+      </c>
+      <c r="J26" s="37">
+        <v>8</v>
+      </c>
+      <c r="K26" s="37">
         <v>8</v>
       </c>
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
-      <c r="N26" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O26" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P26" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R26" s="37" t="n">
+      <c r="N26" s="37">
+        <v>8</v>
+      </c>
+      <c r="O26" s="37">
+        <v>8</v>
+      </c>
+      <c r="P26" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="37">
+        <v>8</v>
+      </c>
+      <c r="R26" s="37">
         <v>8</v>
       </c>
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
-      <c r="U26" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="V26" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="W26" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X26" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y26" s="37" t="n">
+      <c r="U26" s="37">
+        <v>8</v>
+      </c>
+      <c r="V26" s="37">
+        <v>8</v>
+      </c>
+      <c r="W26" s="37">
+        <v>8</v>
+      </c>
+      <c r="X26" s="37">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="37">
         <v>8</v>
       </c>
       <c r="Z26" s="36"/>
       <c r="AA26" s="36"/>
-      <c r="AB26" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC26" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD26" s="37" t="n">
+      <c r="AB26" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC26" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD26" s="37">
         <v>8</v>
       </c>
       <c r="AE26" s="37"/>
@@ -3337,24 +3764,24 @@
       <c r="AO26" s="39"/>
       <c r="AP26" s="32"/>
       <c r="AQ26" s="33"/>
-      <c r="AR26" s="32" t="n">
+      <c r="AR26" s="32">
         <v>18</v>
       </c>
-      <c r="AS26" s="39" t="n">
+      <c r="AS26" s="39">
         <v>144</v>
       </c>
-      <c r="AT26" s="33" t="n">
+      <c r="AT26" s="33">
         <v>20</v>
       </c>
-      <c r="AU26" s="32" t="n">
+      <c r="AU26" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="n">
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="34">
         <v>15</v>
       </c>
-      <c r="B27" s="34" t="n">
+      <c r="B27" s="34">
         <v>83322</v>
       </c>
       <c r="C27" s="35" t="s">
@@ -3365,59 +3792,59 @@
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="36"/>
-      <c r="G27" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H27" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I27" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J27" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K27" s="37" t="n">
+      <c r="G27" s="37">
+        <v>8</v>
+      </c>
+      <c r="H27" s="37">
+        <v>8</v>
+      </c>
+      <c r="I27" s="37">
+        <v>8</v>
+      </c>
+      <c r="J27" s="37">
+        <v>8</v>
+      </c>
+      <c r="K27" s="37">
         <v>8</v>
       </c>
       <c r="L27" s="36"/>
       <c r="M27" s="36"/>
-      <c r="N27" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O27" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P27" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R27" s="37" t="n">
+      <c r="N27" s="37">
+        <v>8</v>
+      </c>
+      <c r="O27" s="37">
+        <v>8</v>
+      </c>
+      <c r="P27" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="37">
+        <v>8</v>
+      </c>
+      <c r="R27" s="37">
         <v>8</v>
       </c>
       <c r="S27" s="36"/>
       <c r="T27" s="36"/>
-      <c r="U27" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="V27" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="W27" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X27" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y27" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z27" s="36" t="n">
+      <c r="U27" s="37">
+        <v>8</v>
+      </c>
+      <c r="V27" s="37">
+        <v>8</v>
+      </c>
+      <c r="W27" s="37">
+        <v>8</v>
+      </c>
+      <c r="X27" s="37">
+        <v>8</v>
+      </c>
+      <c r="Y27" s="37">
+        <v>8</v>
+      </c>
+      <c r="Z27" s="36">
         <v>7</v>
       </c>
-      <c r="AA27" s="36" t="n">
+      <c r="AA27" s="36">
         <v>7</v>
       </c>
       <c r="AB27" s="37" t="s">
@@ -3443,33 +3870,33 @@
       <c r="AL27" s="32"/>
       <c r="AM27" s="32"/>
       <c r="AN27" s="32"/>
-      <c r="AO27" s="39" t="n">
+      <c r="AO27" s="39">
         <v>14</v>
       </c>
-      <c r="AP27" s="32" t="n">
+      <c r="AP27" s="32">
         <v>17.5</v>
       </c>
-      <c r="AQ27" s="33" t="n">
+      <c r="AQ27" s="33">
         <v>14</v>
       </c>
-      <c r="AR27" s="32" t="n">
+      <c r="AR27" s="32">
         <v>22</v>
       </c>
-      <c r="AS27" s="39" t="n">
+      <c r="AS27" s="39">
         <v>174</v>
       </c>
-      <c r="AT27" s="33" t="n">
+      <c r="AT27" s="33">
         <v>20</v>
       </c>
-      <c r="AU27" s="32" t="n">
+      <c r="AU27" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="n">
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="34">
         <v>16</v>
       </c>
-      <c r="B28" s="34" t="n">
+      <c r="B28" s="34">
         <v>63189</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -3480,64 +3907,64 @@
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
-      <c r="G28" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H28" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I28" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J28" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K28" s="37" t="n">
+      <c r="G28" s="37">
+        <v>8</v>
+      </c>
+      <c r="H28" s="37">
+        <v>8</v>
+      </c>
+      <c r="I28" s="37">
+        <v>8</v>
+      </c>
+      <c r="J28" s="37">
+        <v>8</v>
+      </c>
+      <c r="K28" s="37">
         <v>8</v>
       </c>
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
-      <c r="N28" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O28" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P28" s="37" t="n">
+      <c r="N28" s="37">
+        <v>8</v>
+      </c>
+      <c r="O28" s="37">
+        <v>8</v>
+      </c>
+      <c r="P28" s="37">
         <v>9</v>
       </c>
-      <c r="Q28" s="37" t="n">
+      <c r="Q28" s="37">
         <v>9</v>
       </c>
-      <c r="R28" s="37" t="n">
+      <c r="R28" s="37">
         <v>8</v>
       </c>
       <c r="S28" s="36"/>
       <c r="T28" s="36"/>
-      <c r="U28" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="V28" s="37" t="n">
+      <c r="U28" s="37">
+        <v>8</v>
+      </c>
+      <c r="V28" s="37">
         <v>9</v>
       </c>
-      <c r="W28" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X28" s="37" t="n">
+      <c r="W28" s="37">
+        <v>8</v>
+      </c>
+      <c r="X28" s="37">
         <v>11</v>
       </c>
-      <c r="Y28" s="37" t="n">
+      <c r="Y28" s="37">
         <v>9</v>
       </c>
       <c r="Z28" s="36"/>
       <c r="AA28" s="36"/>
-      <c r="AB28" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC28" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD28" s="37" t="n">
+      <c r="AB28" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC28" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD28" s="37">
         <v>8</v>
       </c>
       <c r="AE28" s="37"/>
@@ -3553,24 +3980,24 @@
       <c r="AO28" s="39"/>
       <c r="AP28" s="32"/>
       <c r="AQ28" s="33"/>
-      <c r="AR28" s="32" t="n">
+      <c r="AR28" s="32">
         <v>18</v>
       </c>
-      <c r="AS28" s="39" t="n">
+      <c r="AS28" s="39">
         <v>151</v>
       </c>
-      <c r="AT28" s="33" t="n">
+      <c r="AT28" s="33">
         <v>20</v>
       </c>
-      <c r="AU28" s="32" t="n">
+      <c r="AU28" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34" t="n">
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="34">
         <v>17</v>
       </c>
-      <c r="B29" s="34" t="n">
+      <c r="B29" s="34">
         <v>12368</v>
       </c>
       <c r="C29" s="35" t="s">
@@ -3581,64 +4008,64 @@
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
-      <c r="G29" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H29" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I29" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K29" s="37" t="n">
+      <c r="G29" s="37">
+        <v>8</v>
+      </c>
+      <c r="H29" s="37">
+        <v>8</v>
+      </c>
+      <c r="I29" s="37">
+        <v>8</v>
+      </c>
+      <c r="J29" s="37">
+        <v>8</v>
+      </c>
+      <c r="K29" s="37">
         <v>8</v>
       </c>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
-      <c r="N29" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O29" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P29" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R29" s="37" t="n">
+      <c r="N29" s="37">
+        <v>8</v>
+      </c>
+      <c r="O29" s="37">
+        <v>8</v>
+      </c>
+      <c r="P29" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="37">
+        <v>8</v>
+      </c>
+      <c r="R29" s="37">
         <v>8</v>
       </c>
       <c r="S29" s="36"/>
       <c r="T29" s="36"/>
-      <c r="U29" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="V29" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="W29" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X29" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="37" t="n">
+      <c r="U29" s="37">
+        <v>8</v>
+      </c>
+      <c r="V29" s="37">
+        <v>8</v>
+      </c>
+      <c r="W29" s="37">
+        <v>8</v>
+      </c>
+      <c r="X29" s="37">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="37">
         <v>8</v>
       </c>
       <c r="Z29" s="36"/>
       <c r="AA29" s="36"/>
-      <c r="AB29" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC29" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD29" s="37" t="n">
+      <c r="AB29" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="37">
         <v>8</v>
       </c>
       <c r="AE29" s="37"/>
@@ -3654,24 +4081,24 @@
       <c r="AO29" s="39"/>
       <c r="AP29" s="32"/>
       <c r="AQ29" s="33"/>
-      <c r="AR29" s="32" t="n">
+      <c r="AR29" s="32">
         <v>18</v>
       </c>
-      <c r="AS29" s="39" t="n">
+      <c r="AS29" s="39">
         <v>144</v>
       </c>
-      <c r="AT29" s="33" t="n">
+      <c r="AT29" s="33">
         <v>20</v>
       </c>
-      <c r="AU29" s="32" t="n">
+      <c r="AU29" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34" t="n">
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="34">
         <v>18</v>
       </c>
-      <c r="B30" s="40" t="n">
+      <c r="B30" s="40">
         <v>12512</v>
       </c>
       <c r="C30" s="35" t="s">
@@ -3680,68 +4107,68 @@
       <c r="D30" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="36" t="n">
+      <c r="E30" s="36">
         <v>4</v>
       </c>
       <c r="F30" s="36"/>
-      <c r="G30" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H30" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I30" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K30" s="37" t="n">
+      <c r="G30" s="37">
+        <v>8</v>
+      </c>
+      <c r="H30" s="37">
+        <v>8</v>
+      </c>
+      <c r="I30" s="37">
+        <v>8</v>
+      </c>
+      <c r="J30" s="37">
+        <v>8</v>
+      </c>
+      <c r="K30" s="37">
         <v>8</v>
       </c>
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
-      <c r="N30" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O30" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P30" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q30" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R30" s="37" t="n">
+      <c r="N30" s="37">
+        <v>8</v>
+      </c>
+      <c r="O30" s="37">
+        <v>8</v>
+      </c>
+      <c r="P30" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="37">
+        <v>8</v>
+      </c>
+      <c r="R30" s="37">
         <v>8</v>
       </c>
       <c r="S30" s="36"/>
       <c r="T30" s="36"/>
-      <c r="U30" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="V30" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="W30" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X30" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y30" s="37" t="n">
+      <c r="U30" s="37">
+        <v>8</v>
+      </c>
+      <c r="V30" s="37">
+        <v>8</v>
+      </c>
+      <c r="W30" s="37">
+        <v>8</v>
+      </c>
+      <c r="X30" s="37">
+        <v>8</v>
+      </c>
+      <c r="Y30" s="37">
         <v>8</v>
       </c>
       <c r="Z30" s="36"/>
       <c r="AA30" s="36"/>
-      <c r="AB30" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC30" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD30" s="37" t="n">
+      <c r="AB30" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC30" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD30" s="37">
         <v>8</v>
       </c>
       <c r="AE30" s="37"/>
@@ -3754,25 +4181,25 @@
       <c r="AL30" s="32"/>
       <c r="AM30" s="32"/>
       <c r="AN30" s="32"/>
-      <c r="AO30" s="39" t="n">
+      <c r="AO30" s="39">
         <v>4</v>
       </c>
       <c r="AP30" s="32"/>
       <c r="AQ30" s="33"/>
-      <c r="AR30" s="32" t="n">
+      <c r="AR30" s="32">
         <v>19</v>
       </c>
-      <c r="AS30" s="39" t="n">
+      <c r="AS30" s="39">
         <v>148</v>
       </c>
-      <c r="AT30" s="33" t="n">
+      <c r="AT30" s="33">
         <v>20</v>
       </c>
-      <c r="AU30" s="32" t="n">
+      <c r="AU30" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" ht="14.25" hidden="1" customHeight="1">
       <c r="A31" s="34"/>
       <c r="B31" s="40"/>
       <c r="C31" s="35"/>
@@ -3821,7 +4248,7 @@
       <c r="AT31" s="33"/>
       <c r="AU31" s="32"/>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="34"/>
       <c r="B32" s="41" t="s">
         <v>86</v>
@@ -3872,7 +4299,7 @@
       <c r="AT32" s="33"/>
       <c r="AU32" s="32"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" ht="14.25" hidden="1" customHeight="1">
       <c r="A33" s="34"/>
       <c r="B33" s="40"/>
       <c r="C33" s="35"/>
@@ -3921,11 +4348,11 @@
       <c r="AT33" s="33"/>
       <c r="AU33" s="32"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34" t="n">
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="34">
         <v>19</v>
       </c>
-      <c r="B34" s="34" t="n">
+      <c r="B34" s="34">
         <v>85743</v>
       </c>
       <c r="C34" s="35" t="s">
@@ -3936,36 +4363,36 @@
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
-      <c r="G34" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H34" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I34" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J34" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K34" s="37" t="n">
+      <c r="G34" s="37">
+        <v>8</v>
+      </c>
+      <c r="H34" s="37">
+        <v>8</v>
+      </c>
+      <c r="I34" s="37">
+        <v>8</v>
+      </c>
+      <c r="J34" s="37">
+        <v>8</v>
+      </c>
+      <c r="K34" s="37">
         <v>8</v>
       </c>
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
-      <c r="N34" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O34" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P34" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q34" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R34" s="37" t="n">
+      <c r="N34" s="37">
+        <v>8</v>
+      </c>
+      <c r="O34" s="37">
+        <v>8</v>
+      </c>
+      <c r="P34" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="37">
+        <v>8</v>
+      </c>
+      <c r="R34" s="37">
         <v>8</v>
       </c>
       <c r="S34" s="36"/>
@@ -3973,27 +4400,27 @@
       <c r="U34" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="V34" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="W34" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X34" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y34" s="37" t="n">
+      <c r="V34" s="37">
+        <v>8</v>
+      </c>
+      <c r="W34" s="37">
+        <v>8</v>
+      </c>
+      <c r="X34" s="37">
+        <v>8</v>
+      </c>
+      <c r="Y34" s="37">
         <v>8</v>
       </c>
       <c r="Z34" s="36"/>
       <c r="AA34" s="36"/>
-      <c r="AB34" s="37" t="n">
+      <c r="AB34" s="37">
         <v>8</v>
       </c>
       <c r="AC34" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AD34" s="37" t="n">
+      <c r="AD34" s="37">
         <v>8</v>
       </c>
       <c r="AE34" s="37"/>
@@ -4005,26 +4432,26 @@
       <c r="AK34" s="31"/>
       <c r="AL34" s="32"/>
       <c r="AM34" s="32"/>
-      <c r="AN34" s="32" t="n">
+      <c r="AN34" s="32">
         <v>2</v>
       </c>
       <c r="AO34" s="39"/>
       <c r="AP34" s="32"/>
       <c r="AQ34" s="33"/>
-      <c r="AR34" s="32" t="n">
+      <c r="AR34" s="32">
         <v>16</v>
       </c>
-      <c r="AS34" s="39" t="n">
+      <c r="AS34" s="39">
         <v>128</v>
       </c>
-      <c r="AT34" s="33" t="n">
+      <c r="AT34" s="33">
         <v>20</v>
       </c>
-      <c r="AU34" s="32" t="n">
+      <c r="AU34" s="32">
         <v>160</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" ht="14.25" hidden="1" customHeight="1">
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="35"/>
@@ -4073,7 +4500,7 @@
       <c r="AT35" s="33"/>
       <c r="AU35" s="32"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" ht="14.25" hidden="1" customHeight="1">
       <c r="A36" s="42"/>
       <c r="B36" s="40"/>
       <c r="C36" s="35"/>
@@ -4122,11 +4549,11 @@
       <c r="AT36" s="33"/>
       <c r="AU36" s="32"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="42" t="n">
+    <row r="37" ht="14.25" hidden="1" customHeight="1">
+      <c r="A37" s="42">
         <v>17</v>
       </c>
-      <c r="B37" s="40" t="n">
+      <c r="B37" s="40">
         <v>85671</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -4179,7 +4606,7 @@
       <c r="AT37" s="33"/>
       <c r="AU37" s="32"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" ht="14.25" hidden="1" customHeight="1">
       <c r="A38" s="42"/>
       <c r="B38" s="40"/>
       <c r="C38" s="35"/>
@@ -4228,7 +4655,7 @@
       <c r="AT38" s="33"/>
       <c r="AU38" s="33"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" ht="14.25" hidden="1" customHeight="1">
       <c r="A39" s="42"/>
       <c r="B39" s="40"/>
       <c r="C39" s="35"/>
@@ -4277,7 +4704,7 @@
       <c r="AT39" s="33"/>
       <c r="AU39" s="33"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" ht="14.25" hidden="1" customHeight="1">
       <c r="A40" s="42"/>
       <c r="B40" s="40"/>
       <c r="C40" s="35"/>
@@ -4326,7 +4753,7 @@
       <c r="AT40" s="33"/>
       <c r="AU40" s="33"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" ht="14.25" hidden="1" customHeight="1">
       <c r="A41" s="42"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -4375,7 +4802,7 @@
       <c r="AT41" s="33"/>
       <c r="AU41" s="33"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="45"/>
       <c r="B42" s="45"/>
       <c r="C42" s="45"/>
@@ -4483,18 +4910,18 @@
       <c r="AO42" s="49"/>
       <c r="AP42" s="49"/>
       <c r="AQ42" s="49"/>
-      <c r="AR42" s="49" t="n">
-        <f aca="false">SUM(AR13:AR36)</f>
+      <c r="AR42" s="49">
+        <f>SUM(AR13:AR36)</f>
         <v>349</v>
       </c>
       <c r="AS42" s="49"/>
-      <c r="AT42" s="49" t="n">
-        <f aca="false">SUM(AT13:AT36)</f>
+      <c r="AT42" s="49">
+        <f>SUM(AT13:AT36)</f>
         <v>380</v>
       </c>
       <c r="AU42" s="49"/>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="50" t="s">
         <v>98</v>
       </c>
@@ -4543,17 +4970,17 @@
       <c r="AP43" s="49"/>
       <c r="AQ43" s="49"/>
       <c r="AR43" s="49"/>
-      <c r="AS43" s="49" t="n">
-        <f aca="false">SUM(AS13:AS36)</f>
+      <c r="AS43" s="49">
+        <f>SUM(AS13:AS36)</f>
         <v>2777</v>
       </c>
       <c r="AT43" s="49"/>
-      <c r="AU43" s="49" t="n">
-        <f aca="false">SUM(AU13:AU36)</f>
+      <c r="AU43" s="49">
+        <f>SUM(AU13:AU36)</f>
         <v>3040</v>
       </c>
     </row>
-    <row r="44" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A44" s="54"/>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
@@ -4602,390 +5029,392 @@
       <c r="AN44" s="58"/>
       <c r="AO44" s="58"/>
       <c r="AP44" s="58"/>
-      <c r="AQ44" s="59"/>
-      <c r="AR44" s="59"/>
-      <c r="AS44" s="59"/>
-      <c r="AT44" s="60"/>
-      <c r="AU44" s="61"/>
+      <c r="AQ44" s="58"/>
+      <c r="AR44" s="58"/>
+      <c r="AS44" s="58"/>
+      <c r="AT44" s="59"/>
+      <c r="AU44" s="60"/>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="62" t="s">
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="63" t="s">
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="63" t="s">
+      <c r="F45" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G45" s="64" t="s">
+      <c r="G45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="H45" s="64" t="s">
+      <c r="H45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="I45" s="64" t="s">
+      <c r="I45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="J45" s="64" t="s">
+      <c r="J45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="K45" s="64" t="s">
+      <c r="K45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="L45" s="63" t="s">
+      <c r="L45" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="M45" s="63" t="s">
+      <c r="M45" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="N45" s="64" t="s">
+      <c r="N45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="O45" s="64" t="s">
+      <c r="O45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="P45" s="64" t="s">
+      <c r="P45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="Q45" s="64" t="s">
+      <c r="Q45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="R45" s="64" t="s">
+      <c r="R45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="S45" s="63" t="s">
+      <c r="S45" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="T45" s="63" t="s">
+      <c r="T45" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="U45" s="64" t="s">
+      <c r="U45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="V45" s="64" t="s">
+      <c r="V45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="W45" s="64" t="s">
+      <c r="W45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="X45" s="64" t="s">
+      <c r="X45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="Y45" s="64" t="s">
+      <c r="Y45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="Z45" s="63" t="s">
+      <c r="Z45" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="AA45" s="63" t="s">
+      <c r="AA45" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="AB45" s="64" t="s">
+      <c r="AB45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="AC45" s="64" t="s">
+      <c r="AC45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="AD45" s="64" t="s">
+      <c r="AD45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="AE45" s="64" t="s">
+      <c r="AE45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="AF45" s="64" t="s">
+      <c r="AF45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="AG45" s="63" t="s">
+      <c r="AG45" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="AH45" s="63" t="s">
+      <c r="AH45" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="AI45" s="65" t="s">
+      <c r="AI45" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="AJ45" s="62"/>
-      <c r="AK45" s="62"/>
-      <c r="AL45" s="62"/>
-      <c r="AM45" s="62"/>
-      <c r="AN45" s="62"/>
-      <c r="AO45" s="62"/>
-      <c r="AP45" s="62"/>
-      <c r="AQ45" s="62"/>
-      <c r="AR45" s="62"/>
-      <c r="AS45" s="62"/>
-      <c r="AT45" s="62"/>
-      <c r="AU45" s="62"/>
+      <c r="AJ45" s="61"/>
+      <c r="AK45" s="61"/>
+      <c r="AL45" s="61"/>
+      <c r="AM45" s="61"/>
+      <c r="AN45" s="61"/>
+      <c r="AO45" s="61"/>
+      <c r="AP45" s="61"/>
+      <c r="AQ45" s="61"/>
+      <c r="AR45" s="61"/>
+      <c r="AS45" s="61"/>
+      <c r="AT45" s="61"/>
+      <c r="AU45" s="61"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="66" t="n">
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="65">
         <v>1</v>
       </c>
-      <c r="F46" s="66" t="n">
+      <c r="F46" s="65">
         <v>2</v>
       </c>
-      <c r="G46" s="66" t="n">
+      <c r="G46" s="65">
         <v>3</v>
       </c>
-      <c r="H46" s="66" t="n">
+      <c r="H46" s="65">
         <v>4</v>
       </c>
-      <c r="I46" s="66" t="n">
+      <c r="I46" s="65">
         <v>5</v>
       </c>
-      <c r="J46" s="66" t="n">
+      <c r="J46" s="65">
         <v>6</v>
       </c>
-      <c r="K46" s="66" t="n">
+      <c r="K46" s="65">
         <v>7</v>
       </c>
-      <c r="L46" s="66" t="n">
-        <v>8</v>
-      </c>
-      <c r="M46" s="66" t="n">
+      <c r="L46" s="65">
+        <v>8</v>
+      </c>
+      <c r="M46" s="65">
         <v>9</v>
       </c>
-      <c r="N46" s="66" t="n">
+      <c r="N46" s="65">
         <v>10</v>
       </c>
-      <c r="O46" s="66" t="n">
+      <c r="O46" s="65">
         <v>11</v>
       </c>
-      <c r="P46" s="66" t="n">
+      <c r="P46" s="65">
         <v>12</v>
       </c>
-      <c r="Q46" s="66" t="n">
+      <c r="Q46" s="65">
         <v>13</v>
       </c>
-      <c r="R46" s="66" t="n">
+      <c r="R46" s="65">
         <v>14</v>
       </c>
-      <c r="S46" s="66" t="n">
+      <c r="S46" s="65">
         <v>15</v>
       </c>
-      <c r="T46" s="66" t="n">
+      <c r="T46" s="65">
         <v>16</v>
       </c>
-      <c r="U46" s="66" t="n">
+      <c r="U46" s="65">
         <v>17</v>
       </c>
-      <c r="V46" s="66" t="n">
+      <c r="V46" s="65">
         <v>18</v>
       </c>
-      <c r="W46" s="66" t="n">
+      <c r="W46" s="65">
         <v>19</v>
       </c>
-      <c r="X46" s="66" t="n">
+      <c r="X46" s="65">
         <v>20</v>
       </c>
-      <c r="Y46" s="66" t="n">
+      <c r="Y46" s="65">
         <v>21</v>
       </c>
-      <c r="Z46" s="66" t="n">
+      <c r="Z46" s="65">
         <v>22</v>
       </c>
-      <c r="AA46" s="66" t="n">
+      <c r="AA46" s="65">
         <v>23</v>
       </c>
-      <c r="AB46" s="66" t="n">
+      <c r="AB46" s="65">
         <v>24</v>
       </c>
-      <c r="AC46" s="66" t="n">
+      <c r="AC46" s="65">
         <v>25</v>
       </c>
-      <c r="AD46" s="66" t="n">
+      <c r="AD46" s="65">
         <v>26</v>
       </c>
-      <c r="AE46" s="66" t="n">
+      <c r="AE46" s="65">
         <v>27</v>
       </c>
-      <c r="AF46" s="66" t="n">
+      <c r="AF46" s="65">
         <v>28</v>
       </c>
-      <c r="AG46" s="66" t="n">
+      <c r="AG46" s="65">
         <v>29</v>
       </c>
-      <c r="AH46" s="66" t="n">
+      <c r="AH46" s="65">
         <v>30</v>
       </c>
-      <c r="AI46" s="66" t="n">
+      <c r="AI46" s="65">
         <v>31</v>
       </c>
-      <c r="AJ46" s="62"/>
-      <c r="AK46" s="62"/>
-      <c r="AL46" s="62"/>
-      <c r="AM46" s="62"/>
-      <c r="AN46" s="62"/>
-      <c r="AO46" s="62"/>
-      <c r="AP46" s="62"/>
-      <c r="AQ46" s="62"/>
-      <c r="AR46" s="62"/>
-      <c r="AS46" s="62"/>
-      <c r="AT46" s="62"/>
-      <c r="AU46" s="62"/>
+      <c r="AJ46" s="61"/>
+      <c r="AK46" s="61"/>
+      <c r="AL46" s="61"/>
+      <c r="AM46" s="61"/>
+      <c r="AN46" s="61"/>
+      <c r="AO46" s="61"/>
+      <c r="AP46" s="61"/>
+      <c r="AQ46" s="61"/>
+      <c r="AR46" s="61"/>
+      <c r="AS46" s="61"/>
+      <c r="AT46" s="61"/>
+      <c r="AU46" s="61"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="62"/>
-      <c r="S47" s="62"/>
-      <c r="T47" s="62"/>
-      <c r="U47" s="62"/>
-      <c r="V47" s="62"/>
-      <c r="W47" s="62"/>
-      <c r="X47" s="62"/>
-      <c r="Y47" s="62"/>
-      <c r="Z47" s="62"/>
-      <c r="AA47" s="62"/>
-      <c r="AB47" s="62"/>
-      <c r="AC47" s="62"/>
-      <c r="AD47" s="62"/>
-      <c r="AE47" s="62"/>
-      <c r="AF47" s="62"/>
-      <c r="AG47" s="62"/>
-      <c r="AH47" s="62"/>
-      <c r="AI47" s="62"/>
-      <c r="AJ47" s="62"/>
-      <c r="AK47" s="62"/>
-      <c r="AL47" s="62"/>
-      <c r="AM47" s="62"/>
-      <c r="AN47" s="62"/>
-      <c r="AO47" s="62"/>
-      <c r="AP47" s="62"/>
-      <c r="AQ47" s="62"/>
-      <c r="AR47" s="62"/>
-      <c r="AS47" s="62"/>
-      <c r="AT47" s="62"/>
-      <c r="AU47" s="62"/>
+    <row r="47" ht="12.75" customHeight="1">
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="61"/>
+      <c r="U47" s="61"/>
+      <c r="V47" s="61"/>
+      <c r="W47" s="61"/>
+      <c r="X47" s="61"/>
+      <c r="Y47" s="61"/>
+      <c r="Z47" s="61"/>
+      <c r="AA47" s="61"/>
+      <c r="AB47" s="61"/>
+      <c r="AC47" s="61"/>
+      <c r="AD47" s="61"/>
+      <c r="AE47" s="61"/>
+      <c r="AF47" s="61"/>
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="61"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="61"/>
+      <c r="AK47" s="61"/>
+      <c r="AL47" s="61"/>
+      <c r="AM47" s="61"/>
+      <c r="AN47" s="61"/>
+      <c r="AO47" s="61"/>
+      <c r="AP47" s="61"/>
+      <c r="AQ47" s="61"/>
+      <c r="AR47" s="61"/>
+      <c r="AS47" s="61"/>
+      <c r="AT47" s="61"/>
+      <c r="AU47" s="61"/>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="67" t="n">
-        <v>8</v>
-      </c>
-      <c r="F48" s="67" t="n">
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="61"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="66">
+        <v>8</v>
+      </c>
+      <c r="F48" s="66">
         <v>7</v>
       </c>
-      <c r="G48" s="67" t="n">
+      <c r="G48" s="66">
         <v>4</v>
       </c>
-      <c r="H48" s="67" t="n">
+      <c r="H48" s="66">
         <v>12</v>
       </c>
-      <c r="I48" s="67" t="s">
+      <c r="I48" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="J48" s="67" t="s">
+      <c r="J48" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="K48" s="67" t="s">
+      <c r="K48" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="L48" s="67" t="s">
+      <c r="L48" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="M48" s="67" t="s">
+      <c r="M48" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="N48" s="67" t="s">
+      <c r="N48" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="O48" s="67" t="s">
+      <c r="O48" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="P48" s="67" t="n">
+      <c r="P48" s="66">
         <v>11</v>
       </c>
-      <c r="Q48" s="67" t="s">
+      <c r="Q48" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="R48" s="67" t="s">
+      <c r="R48" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="S48" s="67" t="s">
+      <c r="S48" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="T48" s="67" t="s">
+      <c r="T48" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="U48" s="67" t="n">
+      <c r="U48" s="66">
         <v>6</v>
       </c>
-      <c r="V48" s="67" t="n">
+      <c r="V48" s="66">
         <v>5</v>
       </c>
-      <c r="W48" s="67" t="n">
+      <c r="W48" s="66">
         <v>3</v>
       </c>
-      <c r="X48" s="67" t="n">
+      <c r="X48" s="66">
         <v>2</v>
       </c>
-      <c r="Y48" s="67" t="n">
+      <c r="Y48" s="66">
         <v>1</v>
       </c>
-      <c r="Z48" s="67" t="n">
+      <c r="Z48" s="66">
         <v>9</v>
       </c>
-      <c r="AA48" s="67" t="n">
+      <c r="AA48" s="66">
         <v>10</v>
       </c>
-      <c r="AB48" s="67" t="n">
+      <c r="AB48" s="66">
         <v>11</v>
       </c>
-      <c r="AC48" s="62"/>
-      <c r="AD48" s="62"/>
-      <c r="AE48" s="62"/>
-      <c r="AF48" s="62"/>
-      <c r="AG48" s="64" t="s">
+      <c r="AC48" s="61"/>
+      <c r="AD48" s="61"/>
+      <c r="AE48" s="61"/>
+      <c r="AF48" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG48" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AH48" s="63" t="s">
+      <c r="AH48" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="AI48" s="64" t="s">
+      <c r="AI48" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="AJ48" s="62"/>
-      <c r="AK48" s="62"/>
-      <c r="AL48" s="62"/>
-      <c r="AM48" s="62"/>
-      <c r="AN48" s="62"/>
-      <c r="AO48" s="62"/>
-      <c r="AP48" s="62"/>
-      <c r="AQ48" s="62"/>
-      <c r="AR48" s="62"/>
-      <c r="AS48" s="62"/>
-      <c r="AT48" s="62"/>
-      <c r="AU48" s="62"/>
+      <c r="AJ48" s="61"/>
+      <c r="AK48" s="61"/>
+      <c r="AL48" s="61"/>
+      <c r="AM48" s="61"/>
+      <c r="AN48" s="61"/>
+      <c r="AO48" s="61"/>
+      <c r="AP48" s="61"/>
+      <c r="AQ48" s="61"/>
+      <c r="AR48" s="61"/>
+      <c r="AS48" s="61"/>
+      <c r="AT48" s="61"/>
+      <c r="AU48" s="61"/>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="C1:T1"/>
@@ -5015,19 +5444,43 @@
     <mergeCell ref="J44:O44"/>
     <mergeCell ref="AL44:AP44"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E13:AI35" type="list">
-      <formula1>Main!$E$48:$AB$48</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.668055555555556" right="0.259027777777778" top="0.39375" bottom="0.39375" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="77" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.66805555555555585" right="0.25902777777777808" top="0.39375000000000004" bottom="0.39375000000000004" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
+        <x14:dataValidation xr:uid="{0078002A-00D7-4B53-9AB5-004E00A8007C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>Main!$E$48:$AB$48</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>E13:AI35</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00450073-001A-4F03-B86D-000300380025}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>Main!$AG$48:$AI$48</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>AF48</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{0078009C-007D-4389-828C-009D00F8000C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>Main!$AF$48:$AI$48</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>E45:AI45</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/202304 Табель ОГМ ПК 250.xlsx
+++ b/202304 Табель ОГМ ПК 250.xlsx
@@ -5148,17 +5148,29 @@
     <mergeCell ref="AL44:AP44"/>
     <mergeCell ref="AJ8:AU8"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation sqref="E13:AI35" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="10">
+    <dataValidation sqref="E13:AI35" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>'Main'!$E$48:$AB$48</formula1>
     </dataValidation>
-    <dataValidation sqref="E45:AI45" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="E45:AI45" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>'Main'!$AF$48:$AI$48</formula1>
     </dataValidation>
-    <dataValidation sqref="E13:AI35" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="E13:AI35" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>'Main'!$E$48:$AB$48</formula1>
     </dataValidation>
-    <dataValidation sqref="E45:AI45" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="E45:AI45" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>'Main'!$AF$48:$AI$48</formula1>
+    </dataValidation>
+    <dataValidation sqref="E13:AI35" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>'Main'!$E$48:$AB$48</formula1>
+    </dataValidation>
+    <dataValidation sqref="E45:AI45" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>'Main'!$AF$48:$AI$48</formula1>
+    </dataValidation>
+    <dataValidation sqref="E13:AI35" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>'Main'!$E$48:$AB$48</formula1>
+    </dataValidation>
+    <dataValidation sqref="E45:AI45" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>'Main'!$AF$48:$AI$48</formula1>
     </dataValidation>
     <dataValidation sqref="E13:AI35" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
